--- a/testData/SearchTestData.xlsx
+++ b/testData/SearchTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Intellij Projects\Flipkart\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8A0879-99DB-4188-B127-447527885B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BD18DA-BA5D-400F-8E44-8A6B99B565BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ProductName</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Samsung</t>
+  </si>
+  <si>
+    <t>POCO M6</t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,7 +402,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
